--- a/output/intraday/riepilogo_intraday_2025-10-08.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-10-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,120 +495,125 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>TimeHigh</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>OpenPM</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>HighPM</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>LowPM</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ClosePM</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>VolumePM</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TimePMH</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>High_1m</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Low_1m</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Volume_1m</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>High_60m</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Low_60m</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_60m</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
         </is>
@@ -652,78 +657,83 @@
       <c r="K2" t="n">
         <v>70125734</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:58:00</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>2.19</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>4.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2.17</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>3.22</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>22917498</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2025-10-07 04:27:00</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>3.25</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>3.09</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>197231</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>3.25</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>3.08</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>549495</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>5.94</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>3.07</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>19716760</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>5.94</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>3.07</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>41584007</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>5.94</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>3.07</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>52950081</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>5.94</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>3.07</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>64349870</v>
       </c>
     </row>
@@ -765,78 +775,83 @@
       <c r="K3" t="n">
         <v>83382739</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:36:00</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>2.71</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.79</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1.6</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>61360276</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2025-10-07 08:02:00</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.72</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>1.59</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>1170733</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>1.87</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>1.57</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>6610614</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>1.89</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1.45</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>25025948</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>1.89</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>1.43</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>33227484</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>1.89</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>1.43</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>46050353</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>1.89</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>74894970</v>
       </c>
     </row>
@@ -878,78 +893,83 @@
       <c r="K4" t="n">
         <v>137940232</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:55:00</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>2.08</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>2.96</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1.96</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>2.7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>42658046</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2025-10-07 07:59:00</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>2.72</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>2.61</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>3353128</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>2.72</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>2.54</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>8351389</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>3.1</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>2.54</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>40685823</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>3.1</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>2.54</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>62625974</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>3.1</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>2.54</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>75492715</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>3.1</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>2.39</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>118196642</v>
       </c>
     </row>
@@ -991,78 +1011,83 @@
       <c r="K5" t="n">
         <v>31101986</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:45:00</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>3.68</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>36.25</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>3.6</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>24.89</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>45277056</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2025-10-07 07:35:00</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>25</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>22.6</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>281755</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>26.21</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>22.1</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>1009350</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>31.7</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>22.1</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>4798781</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>31.7</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>22.1</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>8606286</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>31.7</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>22.07</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>11497691</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>31.7</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>19.61</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>23591982</v>
       </c>
     </row>
@@ -1104,78 +1129,83 @@
       <c r="K6" t="n">
         <v>954368</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:50:00</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>2.77</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3.24</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2.77</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>3.03</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>34770</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2025-10-07 08:00:00</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>3.8</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>3.42</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>57773</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>3.8</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>3.03</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>225061</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>3.8</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>2.9</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>269830</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>3.8</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>2.83</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>390157</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>3.8</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>2.57</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>452622</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>3.8</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>2.57</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>595605</v>
       </c>
     </row>
@@ -1217,78 +1247,83 @@
       <c r="K7" t="n">
         <v>1094182</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:56:00</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>152.52</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>390</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>100</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>210</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>2119142</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2025-10-07 04:06:00</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>233.29</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>211.95</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>30831</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>233.29</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>195.82</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>54002</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>240</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>190</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>253471</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>240</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>190</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>388711</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>240</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>175</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>529462</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>240</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>175</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>823664</v>
       </c>
     </row>
@@ -1330,78 +1365,83 @@
       <c r="K8" t="n">
         <v>6445627</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:30:00</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>3.12</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>8.82</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>2.8</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>5.37</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>11532933</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2025-10-07 09:14:00</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>5.6</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>4.86</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>576652</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>5.6</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>4.86</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>610502</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>5.6</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>3.74</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>1812085</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>5.6</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>3.4</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>3789069</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>5.6</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>3.4</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>4262134</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>5.6</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>3.4</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>5581772</v>
       </c>
     </row>
@@ -1441,78 +1481,83 @@
       <c r="K9" t="n">
         <v>52819349</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:31:00</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1.66</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>9.19</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>1.6</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>4.56</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>94221868</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2025-10-07 07:51:00</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>4.97</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>4.31</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>1074653</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>5.23</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>4.31</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>5184744</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>5.23</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>3.62</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>16648685</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>5.23</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>3.62</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>24813988</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>5.23</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>3.56</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>29551212</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>5.23</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>2.96</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>45534680</v>
       </c>
     </row>
